--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AEFD5-E340-4FA8-A223-6FB5EADF9944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF5E93-54A2-466A-956E-BF043C79D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Cuantitat (euro)</t>
+  </si>
+  <si>
+    <t>Verse</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,11 +160,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -170,6 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -453,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -474,13 +515,13 @@
       </c>
     </row>
     <row r="8" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I8" t="s">
@@ -488,7 +529,15 @@
       </c>
     </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="4">
+        <v>44680</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5">
+        <v>100</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,6 +549,9 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="I10" s="6">
         <v>44669</v>
       </c>
@@ -511,6 +563,9 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="I11" s="4">
         <v>44793</v>
       </c>
@@ -522,6 +577,9 @@
       </c>
     </row>
     <row r="12" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="I12" s="4">
         <v>44851</v>
       </c>
@@ -533,6 +591,10 @@
       </c>
     </row>
     <row r="13" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="G13" s="11"/>
       <c r="I13" s="4">
         <v>44869</v>
       </c>
@@ -544,6 +606,9 @@
       </c>
     </row>
     <row r="14" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="I14" s="4">
         <v>44925</v>
       </c>
@@ -555,51 +620,81 @@
       </c>
     </row>
     <row r="15" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="9:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5">

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BF5E93-54A2-466A-956E-BF043C79D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649B69D-FE0D-44CB-B01E-71747EEBB61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-195" yWindow="0" windowWidth="14805" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
   <si>
     <t>Banc</t>
-  </si>
-  <si>
-    <t>Cuantitat</t>
   </si>
   <si>
     <t>Compra</t>
@@ -83,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -161,35 +158,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -199,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -209,9 +184,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,17 +464,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:K24"/>
+  <dimension ref="C7:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
@@ -511,32 +483,32 @@
   <sheetData>
     <row r="7" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="9" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
-        <v>44680</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>100</v>
+      <c r="C9" s="6">
+        <v>44665</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>8.74</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>0</v>
@@ -545,87 +517,128 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>44665</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>10.18</v>
+      </c>
       <c r="I10" s="6">
         <v>44669</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="7">
         <v>11.1</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4">
+        <v>44670</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1000</v>
+      </c>
       <c r="I11" s="4">
+        <v>44678</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5">
+        <v>155.72999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>44670</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="4">
         <v>44793</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="J12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="5">
         <v>145.11000000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="I12" s="4">
+    <row r="13" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>44673</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>963</v>
+      </c>
+      <c r="I13" s="4">
         <v>44851</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="J13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="4">
+    <row r="14" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>44678</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
+        <v>400</v>
+      </c>
+      <c r="I14" s="4">
         <v>44869</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="J14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="5">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="I14" s="4">
+    <row r="15" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>44679</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
+        <v>300</v>
+      </c>
+      <c r="I15" s="4">
         <v>44925</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="5">
         <v>340</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
@@ -691,15 +704,21 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="8"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5">
         <f>SUM(K10:K21)</f>
-        <v>876.21</v>
+        <v>1031.94</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="3">
+        <f>SUM(E10:E24)</f>
+        <v>3673.18</v>
       </c>
     </row>
   </sheetData>

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B649B69D-FE0D-44CB-B01E-71747EEBB61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43002DD4-9124-4F5B-ABAE-23F3356AB112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="0" windowWidth="14805" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -157,24 +157,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -183,7 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:K25"/>
+  <dimension ref="C7:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -571,13 +557,13 @@
         <v>1000</v>
       </c>
       <c r="I12" s="4">
-        <v>44793</v>
+        <v>44684</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" s="5">
-        <v>145.11000000000001</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,13 +577,13 @@
         <v>963</v>
       </c>
       <c r="I13" s="4">
-        <v>44851</v>
+        <v>44793</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="5">
-        <v>220</v>
+        <v>145.11000000000001</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -611,13 +597,13 @@
         <v>400</v>
       </c>
       <c r="I14" s="4">
-        <v>44869</v>
+        <v>44851</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="5">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,94 +617,210 @@
         <v>300</v>
       </c>
       <c r="I15" s="4">
-        <v>44925</v>
+        <v>44869</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K15" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>44679</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <v>171</v>
+      </c>
+      <c r="I16" s="4">
+        <v>44925</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
     <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="4">
+        <v>44679</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1000</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="4">
+        <v>44681</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
+        <v>250</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="4">
+        <v>44682</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
+        <v>500</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="4">
+        <v>44685</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>200</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="4">
+        <v>44686</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>500</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="4">
+        <v>44686</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>500</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="4">
+        <v>44686</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
+        <v>500</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
+    <row r="24" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
+        <v>510</v>
+      </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5">
         <f>SUM(K10:K21)</f>
-        <v>1031.94</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="3">
-        <f>SUM(E10:E24)</f>
-        <v>3673.18</v>
+        <v>1051.1199999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>44687</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="35" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="3">
+        <f>SUM(E10:E33)</f>
+        <v>7904.18</v>
       </c>
     </row>
   </sheetData>

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43002DD4-9124-4F5B-ABAE-23F3356AB112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E478D-9E1A-46A7-9D5B-4DDD73F47671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -157,11 +157,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -170,6 +183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,13 +592,13 @@
         <v>963</v>
       </c>
       <c r="I13" s="4">
-        <v>44793</v>
+        <v>44690</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" s="5">
-        <v>145.11000000000001</v>
+        <v>53.09</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -597,13 +612,13 @@
         <v>400</v>
       </c>
       <c r="I14" s="4">
-        <v>44851</v>
+        <v>44690</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="5">
-        <v>220</v>
+        <v>202.98</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,13 +632,13 @@
         <v>300</v>
       </c>
       <c r="I15" s="4">
-        <v>44869</v>
+        <v>44690</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" s="5">
-        <v>160</v>
+        <v>211.4</v>
       </c>
     </row>
     <row r="16" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -637,13 +652,13 @@
         <v>171</v>
       </c>
       <c r="I16" s="4">
-        <v>44925</v>
+        <v>44698</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K16" s="5">
-        <v>340</v>
+        <v>1617.42</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -656,7 +671,9 @@
       <c r="E17" s="5">
         <v>1000</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="4">
+        <v>44718</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
     </row>
@@ -670,9 +687,15 @@
       <c r="E18" s="5">
         <v>250</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="I18" s="4">
+        <v>44793</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="5">
+        <v>145.11000000000001</v>
+      </c>
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
@@ -684,9 +707,15 @@
       <c r="E19" s="5">
         <v>500</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="I19" s="4">
+        <v>44851</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="5">
+        <v>220</v>
+      </c>
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
@@ -698,9 +727,15 @@
       <c r="E20" s="5">
         <v>200</v>
       </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="I20" s="4">
+        <v>44869</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
@@ -712,9 +747,15 @@
       <c r="E21" s="5">
         <v>500</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="I21" s="8">
+        <v>44925</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="9">
+        <v>340</v>
+      </c>
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
@@ -758,7 +799,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5">
         <f>SUM(K10:K21)</f>
-        <v>1051.1199999999999</v>
+        <v>3136.01</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,32 +814,50 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
+      <c r="C26" s="4">
+        <v>44688</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5">
+        <v>1500</v>
+      </c>
     </row>
     <row r="27" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="5"/>
+      <c r="C27" s="4">
+        <v>44690</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5">
+        <v>900</v>
+      </c>
     </row>
     <row r="28" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="4">
+        <v>44716</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,7 +879,7 @@
     <row r="36" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="3">
         <f>SUM(E10:E33)</f>
-        <v>7904.18</v>
+        <v>10374.18</v>
       </c>
     </row>
   </sheetData>

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E478D-9E1A-46A7-9D5B-4DDD73F47671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD4AFB3-2A8E-4BB2-9595-4F9EA3D4ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -80,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -168,6 +168,19 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -183,8 +196,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:K36"/>
+  <dimension ref="C7:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,8 +687,12 @@
       <c r="I17" s="4">
         <v>44718</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>79.12</v>
+      </c>
     </row>
     <row r="18" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
@@ -688,13 +705,13 @@
         <v>250</v>
       </c>
       <c r="I18" s="4">
-        <v>44793</v>
+        <v>44725</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K18" s="5">
-        <v>145.11000000000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,13 +725,13 @@
         <v>500</v>
       </c>
       <c r="I19" s="4">
-        <v>44851</v>
+        <v>44725</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19" s="5">
-        <v>220</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,13 +745,13 @@
         <v>200</v>
       </c>
       <c r="I20" s="4">
-        <v>44869</v>
+        <v>44793</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K20" s="5">
-        <v>160</v>
+        <v>145.11000000000001</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,14 +764,14 @@
       <c r="E21" s="5">
         <v>500</v>
       </c>
-      <c r="I21" s="8">
-        <v>44925</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="I21" s="4">
+        <v>44851</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="9">
-        <v>340</v>
+      <c r="K21" s="5">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,9 +784,15 @@
       <c r="E22" s="5">
         <v>500</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="I22" s="4">
+        <v>44869</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="5">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="4">
@@ -781,9 +804,15 @@
       <c r="E23" s="5">
         <v>500</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="I23" s="4">
+        <v>44877</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="5">
+        <v>18.79</v>
+      </c>
     </row>
     <row r="24" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="4">
@@ -795,11 +824,14 @@
       <c r="E24" s="5">
         <v>510</v>
       </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="I24" s="4">
+        <v>44879</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="K24" s="5">
-        <f>SUM(K10:K21)</f>
-        <v>3136.01</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="25" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,6 +844,15 @@
       <c r="E25" s="5">
         <v>100</v>
       </c>
+      <c r="I25" s="4">
+        <v>44881</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="5">
+        <v>246.01</v>
+      </c>
     </row>
     <row r="26" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4">
@@ -823,6 +864,15 @@
       <c r="E26" s="5">
         <v>1500</v>
       </c>
+      <c r="I26" s="4">
+        <v>44891</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="5">
+        <v>10.88</v>
+      </c>
     </row>
     <row r="27" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="4">
@@ -834,6 +884,15 @@
       <c r="E27" s="5">
         <v>900</v>
       </c>
+      <c r="I27" s="4">
+        <v>44889</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="5">
+        <v>372</v>
+      </c>
     </row>
     <row r="28" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4">
@@ -845,41 +904,248 @@
       <c r="E28" s="5">
         <v>70</v>
       </c>
+      <c r="I28" s="4">
+        <v>44925</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <v>340</v>
+      </c>
     </row>
     <row r="29" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="5"/>
+      <c r="C29" s="4">
+        <v>44719</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5">
+        <v>150</v>
+      </c>
+      <c r="K29" s="5">
+        <f>SUM(K10:K28)</f>
+        <v>3967.9700000000003</v>
+      </c>
     </row>
     <row r="30" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="5"/>
+      <c r="C30" s="4">
+        <v>44719</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="31" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="C31" s="4">
+        <v>44781</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="32" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="C32" s="4">
+        <v>44783</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
+        <v>12.91</v>
+      </c>
     </row>
     <row r="33" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="35" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="3">
+      <c r="C33" s="4">
+        <v>44789</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>44795</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>44799</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>44803</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>44801</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>44821</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>44829</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>44830</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>44839</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>44847</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>44859</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>44876</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>44877</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>44880</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="9">
         <f>SUM(E10:E33)</f>
-        <v>10374.18</v>
+        <v>10657.03</v>
       </c>
     </row>
   </sheetData>

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD4AFB3-2A8E-4BB2-9595-4F9EA3D4ACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969B26B-F606-4983-8D4C-C9B9F1E5500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -58,13 +58,24 @@
   <si>
     <t>Verse</t>
   </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,10 +185,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -187,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -197,7 +210,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C7:K51"/>
+  <dimension ref="C7:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +908,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>44716</v>
       </c>
@@ -907,14 +921,14 @@
       <c r="I28" s="4">
         <v>44925</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K28" s="8">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>44719</v>
       </c>
@@ -924,7 +938,10 @@
       <c r="E29" s="5">
         <v>150</v>
       </c>
-      <c r="K29" s="5">
+      <c r="J29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3">
         <f>SUM(K10:K28)</f>
         <v>3967.9700000000003</v>
       </c>
@@ -1117,35 +1134,111 @@
       </c>
     </row>
     <row r="47" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
+      <c r="C47" s="4">
+        <v>44885</v>
+      </c>
       <c r="D47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5">
+        <v>10.09</v>
+      </c>
     </row>
     <row r="48" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
+      <c r="C48" s="4">
+        <v>44889</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="49" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
+      <c r="C49" s="4">
+        <v>44897</v>
+      </c>
       <c r="D49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5">
+        <v>16.16</v>
+      </c>
     </row>
     <row r="50" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="9">
-        <f>SUM(E10:E33)</f>
-        <v>10657.03</v>
+      <c r="C50" s="4">
+        <v>44909</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>44914</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>44916</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>44920</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>44923</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3">
+        <f>SUM(E10:E54)</f>
+        <v>13401.2</v>
       </c>
     </row>
   </sheetData>

--- a/RentaPau.xlsx
+++ b/RentaPau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauma\OneDrive\Escritorio\Movimientos_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969B26B-F606-4983-8D4C-C9B9F1E5500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE3761-0F29-49E7-B2DD-102537ACD4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Verse</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,39 +165,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -209,9 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -908,7 +876,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="4">
         <v>44716</v>
       </c>
@@ -921,14 +889,14 @@
       <c r="I28" s="4">
         <v>44925</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="4">
         <v>44719</v>
       </c>
@@ -938,13 +906,8 @@
       <c r="E29" s="5">
         <v>150</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="3">
-        <f>SUM(K10:K28)</f>
-        <v>3967.9700000000003</v>
-      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="3:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="4">
@@ -1221,25 +1184,20 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="4">
         <v>44926</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="5">
         <v>350</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="3">
-        <f>SUM(E10:E54)</f>
-        <v>13401.2</v>
-      </c>
+    <row r="56" spans="3:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="8"/>
+      <c r="E56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
